--- a/lowe/edd/data/DELNOHWS.xlsx
+++ b/lowe/edd/data/DELNOHWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1298,14 +1298,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH42"/>
+  <dimension ref="A1:JI42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1315,12 +1315,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1330,14 +1330,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1345,12 +1345,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1363,7 +1363,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2165,11 +2165,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -2972,8 +2975,11 @@
       <c r="JH9" s="11">
         <v>9760</v>
       </c>
+      <c r="JI9" s="11">
+        <v>9530</v>
+      </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3776,8 +3782,11 @@
       <c r="JH10" s="11">
         <v>9070</v>
       </c>
+      <c r="JI10" s="11">
+        <v>8950</v>
+      </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4580,8 +4589,11 @@
       <c r="JH11" s="11">
         <v>690</v>
       </c>
+      <c r="JI11" s="11">
+        <v>590</v>
+      </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5384,8 +5396,11 @@
       <c r="JH12" s="12">
         <v>7.0999999999999994E-2</v>
       </c>
+      <c r="JI12" s="12">
+        <v>6.0999999999999999E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6188,8 +6203,11 @@
       <c r="JH13" s="11">
         <v>8560</v>
       </c>
+      <c r="JI13" s="11">
+        <v>8370</v>
+      </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -6992,8 +7010,11 @@
       <c r="JH14" s="11">
         <v>330</v>
       </c>
+      <c r="JI14" s="11">
+        <v>380</v>
+      </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7796,8 +7817,11 @@
       <c r="JH15" s="11">
         <v>8230</v>
       </c>
+      <c r="JI15" s="11">
+        <v>7990</v>
+      </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8600,8 +8624,11 @@
       <c r="JH16" s="11">
         <v>4410</v>
       </c>
+      <c r="JI16" s="11">
+        <v>4430</v>
+      </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9404,8 +9431,11 @@
       <c r="JH17" s="11">
         <v>430</v>
       </c>
+      <c r="JI17" s="11">
+        <v>440</v>
+      </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10208,8 +10238,11 @@
       <c r="JH18" s="11">
         <v>270</v>
       </c>
+      <c r="JI18" s="11">
+        <v>270</v>
+      </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -11012,8 +11045,11 @@
       <c r="JH19" s="11">
         <v>160</v>
       </c>
+      <c r="JI19" s="11">
+        <v>170</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -11816,8 +11852,11 @@
       <c r="JH20" s="11">
         <v>7800</v>
       </c>
+      <c r="JI20" s="11">
+        <v>7550</v>
+      </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -12620,8 +12659,11 @@
       <c r="JH21" s="11">
         <v>3980</v>
       </c>
+      <c r="JI21" s="11">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -13424,8 +13466,11 @@
       <c r="JH22" s="11">
         <v>1030</v>
       </c>
+      <c r="JI22" s="11">
+        <v>1030</v>
+      </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>25</v>
       </c>
@@ -14228,8 +14273,11 @@
       <c r="JH23" s="11">
         <v>60</v>
       </c>
+      <c r="JI23" s="11">
+        <v>60</v>
+      </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>26</v>
       </c>
@@ -15032,8 +15080,11 @@
       <c r="JH24" s="11">
         <v>150</v>
       </c>
+      <c r="JI24" s="11">
+        <v>140</v>
+      </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>27</v>
       </c>
@@ -15836,8 +15887,11 @@
       <c r="JH25" s="11">
         <v>170</v>
       </c>
+      <c r="JI25" s="11">
+        <v>160</v>
+      </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>28</v>
       </c>
@@ -16640,8 +16694,11 @@
       <c r="JH26" s="11">
         <v>1580</v>
       </c>
+      <c r="JI26" s="11">
+        <v>1640</v>
+      </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>29</v>
       </c>
@@ -17444,8 +17501,11 @@
       <c r="JH27" s="11">
         <v>900</v>
       </c>
+      <c r="JI27" s="11">
+        <v>870</v>
+      </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>30</v>
       </c>
@@ -18248,8 +18308,11 @@
       <c r="JH28" s="11">
         <v>100</v>
       </c>
+      <c r="JI28" s="11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>31</v>
       </c>
@@ -19052,8 +19115,11 @@
       <c r="JH29" s="11">
         <v>3820</v>
       </c>
+      <c r="JI29" s="11">
+        <v>3560</v>
+      </c>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>32</v>
       </c>
@@ -19856,8 +19922,11 @@
       <c r="JH30" s="11">
         <v>200</v>
       </c>
+      <c r="JI30" s="11">
+        <v>190</v>
+      </c>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>33</v>
       </c>
@@ -20660,8 +20729,11 @@
       <c r="JH31" s="11">
         <v>3620</v>
       </c>
+      <c r="JI31" s="11">
+        <v>3370</v>
+      </c>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>34</v>
       </c>
@@ -21464,8 +21536,11 @@
       <c r="JH32" s="11">
         <v>1420</v>
       </c>
+      <c r="JI32" s="11">
+        <v>1410</v>
+      </c>
     </row>
-    <row r="33" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>35</v>
       </c>
@@ -22268,8 +22343,11 @@
       <c r="JH33" s="11">
         <v>2200</v>
       </c>
+      <c r="JI33" s="11">
+        <v>1960</v>
+      </c>
     </row>
-    <row r="35" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>85</v>
       </c>
@@ -22282,7 +22360,7 @@
       <c r="H35" s="17"/>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>15</v>
       </c>
@@ -22295,7 +22373,7 @@
       <c r="H36" s="14"/>
       <c r="I36" s="18"/>
     </row>
-    <row r="37" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>86</v>
       </c>
@@ -22308,7 +22386,7 @@
       <c r="H37" s="14"/>
       <c r="I37" s="18"/>
     </row>
-    <row r="38" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>87</v>
       </c>
@@ -22321,7 +22399,7 @@
       <c r="H38" s="14"/>
       <c r="I38" s="18"/>
     </row>
-    <row r="39" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>88</v>
       </c>
@@ -22334,7 +22412,7 @@
       <c r="H39" s="14"/>
       <c r="I39" s="18"/>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>89</v>
       </c>
@@ -22347,7 +22425,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="18"/>
     </row>
-    <row r="41" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>90</v>
       </c>
@@ -22360,7 +22438,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
         <v>91</v>
       </c>

--- a/lowe/edd/data/DELNOHWS.xlsx
+++ b/lowe/edd/data/DELNOHWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1298,7 +1298,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI42"/>
+  <dimension ref="A1:JJ42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1315,12 +1315,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1330,14 +1330,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1345,12 +1345,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1363,7 +1363,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2168,11 +2168,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -2978,8 +2981,11 @@
       <c r="JI9" s="11">
         <v>9530</v>
       </c>
+      <c r="JJ9" s="11">
+        <v>9500</v>
+      </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3785,8 +3791,11 @@
       <c r="JI10" s="11">
         <v>8950</v>
       </c>
+      <c r="JJ10" s="11">
+        <v>8930</v>
+      </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4590,10 +4599,13 @@
         <v>690</v>
       </c>
       <c r="JI11" s="11">
-        <v>590</v>
+        <v>580</v>
+      </c>
+      <c r="JJ11" s="11">
+        <v>570</v>
       </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5399,8 +5411,11 @@
       <c r="JI12" s="12">
         <v>6.0999999999999999E-2</v>
       </c>
+      <c r="JJ12" s="12">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6206,8 +6221,11 @@
       <c r="JI13" s="11">
         <v>8370</v>
       </c>
+      <c r="JJ13" s="11">
+        <v>8380</v>
+      </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7013,8 +7031,11 @@
       <c r="JI14" s="11">
         <v>380</v>
       </c>
+      <c r="JJ14" s="11">
+        <v>360</v>
+      </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7820,8 +7841,11 @@
       <c r="JI15" s="11">
         <v>7990</v>
       </c>
+      <c r="JJ15" s="11">
+        <v>8020</v>
+      </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8627,8 +8651,11 @@
       <c r="JI16" s="11">
         <v>4430</v>
       </c>
+      <c r="JJ16" s="11">
+        <v>4400</v>
+      </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9434,8 +9461,11 @@
       <c r="JI17" s="11">
         <v>440</v>
       </c>
+      <c r="JJ17" s="11">
+        <v>420</v>
+      </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10241,8 +10271,11 @@
       <c r="JI18" s="11">
         <v>270</v>
       </c>
+      <c r="JJ18" s="11">
+        <v>260</v>
+      </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -11048,8 +11081,11 @@
       <c r="JI19" s="11">
         <v>170</v>
       </c>
+      <c r="JJ19" s="11">
+        <v>160</v>
+      </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -11855,8 +11891,11 @@
       <c r="JI20" s="11">
         <v>7550</v>
       </c>
+      <c r="JJ20" s="11">
+        <v>7600</v>
+      </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -12662,8 +12701,11 @@
       <c r="JI21" s="11">
         <v>4000</v>
       </c>
+      <c r="JJ21" s="11">
+        <v>3980</v>
+      </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -13469,8 +13511,11 @@
       <c r="JI22" s="11">
         <v>1030</v>
       </c>
+      <c r="JJ22" s="11">
+        <v>1030</v>
+      </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>25</v>
       </c>
@@ -14276,8 +14321,11 @@
       <c r="JI23" s="11">
         <v>60</v>
       </c>
+      <c r="JJ23" s="11">
+        <v>60</v>
+      </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>26</v>
       </c>
@@ -15083,8 +15131,11 @@
       <c r="JI24" s="11">
         <v>140</v>
       </c>
+      <c r="JJ24" s="11">
+        <v>150</v>
+      </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>27</v>
       </c>
@@ -15890,8 +15941,11 @@
       <c r="JI25" s="11">
         <v>160</v>
       </c>
+      <c r="JJ25" s="11">
+        <v>150</v>
+      </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>28</v>
       </c>
@@ -16697,8 +16751,11 @@
       <c r="JI26" s="11">
         <v>1640</v>
       </c>
+      <c r="JJ26" s="11">
+        <v>1650</v>
+      </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>29</v>
       </c>
@@ -17504,8 +17561,11 @@
       <c r="JI27" s="11">
         <v>870</v>
       </c>
+      <c r="JJ27" s="11">
+        <v>830</v>
+      </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>30</v>
       </c>
@@ -18311,8 +18371,11 @@
       <c r="JI28" s="11">
         <v>100</v>
       </c>
+      <c r="JJ28" s="11">
+        <v>110</v>
+      </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>31</v>
       </c>
@@ -19118,8 +19181,11 @@
       <c r="JI29" s="11">
         <v>3560</v>
       </c>
+      <c r="JJ29" s="11">
+        <v>3630</v>
+      </c>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>32</v>
       </c>
@@ -19925,8 +19991,11 @@
       <c r="JI30" s="11">
         <v>190</v>
       </c>
+      <c r="JJ30" s="11">
+        <v>180</v>
+      </c>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>33</v>
       </c>
@@ -20732,8 +20801,11 @@
       <c r="JI31" s="11">
         <v>3370</v>
       </c>
+      <c r="JJ31" s="11">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>34</v>
       </c>
@@ -21539,8 +21611,11 @@
       <c r="JI32" s="11">
         <v>1410</v>
       </c>
+      <c r="JJ32" s="11">
+        <v>1400</v>
+      </c>
     </row>
-    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>35</v>
       </c>
@@ -22346,8 +22421,11 @@
       <c r="JI33" s="11">
         <v>1960</v>
       </c>
+      <c r="JJ33" s="11">
+        <v>2040</v>
+      </c>
     </row>
-    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>85</v>
       </c>
@@ -22360,7 +22438,7 @@
       <c r="H35" s="17"/>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>15</v>
       </c>
@@ -22373,7 +22451,7 @@
       <c r="H36" s="14"/>
       <c r="I36" s="18"/>
     </row>
-    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>86</v>
       </c>
@@ -22386,7 +22464,7 @@
       <c r="H37" s="14"/>
       <c r="I37" s="18"/>
     </row>
-    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>87</v>
       </c>
@@ -22399,7 +22477,7 @@
       <c r="H38" s="14"/>
       <c r="I38" s="18"/>
     </row>
-    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>88</v>
       </c>
@@ -22412,7 +22490,7 @@
       <c r="H39" s="14"/>
       <c r="I39" s="18"/>
     </row>
-    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>89</v>
       </c>
@@ -22425,7 +22503,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="18"/>
     </row>
-    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>90</v>
       </c>
@@ -22438,7 +22516,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
         <v>91</v>
       </c>

--- a/lowe/edd/data/DELNOHWS.xlsx
+++ b/lowe/edd/data/DELNOHWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1298,7 +1298,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ42"/>
+  <dimension ref="A1:JL42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1315,12 +1315,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1330,14 +1330,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1345,12 +1345,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1363,7 +1363,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2171,11 +2171,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -2984,8 +2990,14 @@
       <c r="JJ9" s="11">
         <v>9500</v>
       </c>
+      <c r="JK9" s="11">
+        <v>9260</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>9230</v>
+      </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3794,8 +3806,14 @@
       <c r="JJ10" s="11">
         <v>8930</v>
       </c>
+      <c r="JK10" s="11">
+        <v>8740</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>8740</v>
+      </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4604,8 +4622,14 @@
       <c r="JJ11" s="11">
         <v>570</v>
       </c>
+      <c r="JK11" s="11">
+        <v>520</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>490</v>
+      </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5414,8 +5438,14 @@
       <c r="JJ12" s="12">
         <v>0.06</v>
       </c>
+      <c r="JK12" s="12">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>5.2999999999999999E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6224,8 +6254,14 @@
       <c r="JJ13" s="11">
         <v>8380</v>
       </c>
+      <c r="JK13" s="11">
+        <v>8120</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>8120</v>
+      </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7034,8 +7070,14 @@
       <c r="JJ14" s="11">
         <v>360</v>
       </c>
+      <c r="JK14" s="11">
+        <v>250</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>230</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7844,8 +7886,14 @@
       <c r="JJ15" s="11">
         <v>8020</v>
       </c>
+      <c r="JK15" s="11">
+        <v>7870</v>
+      </c>
+      <c r="JL15" s="11">
+        <v>7890</v>
+      </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8654,8 +8702,14 @@
       <c r="JJ16" s="11">
         <v>4400</v>
       </c>
+      <c r="JK16" s="11">
+        <v>4340</v>
+      </c>
+      <c r="JL16" s="11">
+        <v>4300</v>
+      </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9464,8 +9518,14 @@
       <c r="JJ17" s="11">
         <v>420</v>
       </c>
+      <c r="JK17" s="11">
+        <v>400</v>
+      </c>
+      <c r="JL17" s="11">
+        <v>390</v>
+      </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10274,8 +10334,14 @@
       <c r="JJ18" s="11">
         <v>260</v>
       </c>
+      <c r="JK18" s="11">
+        <v>240</v>
+      </c>
+      <c r="JL18" s="11">
+        <v>230</v>
+      </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -11084,8 +11150,14 @@
       <c r="JJ19" s="11">
         <v>160</v>
       </c>
+      <c r="JK19" s="11">
+        <v>160</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>160</v>
+      </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -11894,8 +11966,14 @@
       <c r="JJ20" s="11">
         <v>7600</v>
       </c>
+      <c r="JK20" s="11">
+        <v>7480</v>
+      </c>
+      <c r="JL20" s="11">
+        <v>7510</v>
+      </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -12704,8 +12782,14 @@
       <c r="JJ21" s="11">
         <v>3980</v>
       </c>
+      <c r="JK21" s="11">
+        <v>3940</v>
+      </c>
+      <c r="JL21" s="11">
+        <v>3910</v>
+      </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -13514,8 +13598,14 @@
       <c r="JJ22" s="11">
         <v>1030</v>
       </c>
+      <c r="JK22" s="11">
+        <v>1030</v>
+      </c>
+      <c r="JL22" s="11">
+        <v>1020</v>
+      </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>25</v>
       </c>
@@ -14324,8 +14414,14 @@
       <c r="JJ23" s="11">
         <v>60</v>
       </c>
+      <c r="JK23" s="11">
+        <v>60</v>
+      </c>
+      <c r="JL23" s="11">
+        <v>60</v>
+      </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>26</v>
       </c>
@@ -15134,8 +15230,14 @@
       <c r="JJ24" s="11">
         <v>150</v>
       </c>
+      <c r="JK24" s="11">
+        <v>150</v>
+      </c>
+      <c r="JL24" s="11">
+        <v>150</v>
+      </c>
     </row>
-    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>27</v>
       </c>
@@ -15944,8 +16046,14 @@
       <c r="JJ25" s="11">
         <v>150</v>
       </c>
+      <c r="JK25" s="11">
+        <v>150</v>
+      </c>
+      <c r="JL25" s="11">
+        <v>160</v>
+      </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>28</v>
       </c>
@@ -16754,8 +16862,14 @@
       <c r="JJ26" s="11">
         <v>1650</v>
       </c>
+      <c r="JK26" s="11">
+        <v>1660</v>
+      </c>
+      <c r="JL26" s="11">
+        <v>1650</v>
+      </c>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>29</v>
       </c>
@@ -17564,8 +17678,14 @@
       <c r="JJ27" s="11">
         <v>830</v>
       </c>
+      <c r="JK27" s="11">
+        <v>790</v>
+      </c>
+      <c r="JL27" s="11">
+        <v>770</v>
+      </c>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>30</v>
       </c>
@@ -18374,8 +18494,14 @@
       <c r="JJ28" s="11">
         <v>110</v>
       </c>
+      <c r="JK28" s="11">
+        <v>110</v>
+      </c>
+      <c r="JL28" s="11">
+        <v>110</v>
+      </c>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>31</v>
       </c>
@@ -19184,8 +19310,14 @@
       <c r="JJ29" s="11">
         <v>3630</v>
       </c>
+      <c r="JK29" s="11">
+        <v>3530</v>
+      </c>
+      <c r="JL29" s="11">
+        <v>3600</v>
+      </c>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>32</v>
       </c>
@@ -19994,8 +20126,14 @@
       <c r="JJ30" s="11">
         <v>180</v>
       </c>
+      <c r="JK30" s="11">
+        <v>160</v>
+      </c>
+      <c r="JL30" s="11">
+        <v>140</v>
+      </c>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>33</v>
       </c>
@@ -20804,8 +20942,14 @@
       <c r="JJ31" s="11">
         <v>3450</v>
       </c>
+      <c r="JK31" s="11">
+        <v>3380</v>
+      </c>
+      <c r="JL31" s="11">
+        <v>3460</v>
+      </c>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>34</v>
       </c>
@@ -21614,8 +21758,14 @@
       <c r="JJ32" s="11">
         <v>1400</v>
       </c>
+      <c r="JK32" s="11">
+        <v>1360</v>
+      </c>
+      <c r="JL32" s="11">
+        <v>1360</v>
+      </c>
     </row>
-    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>35</v>
       </c>
@@ -22424,8 +22574,14 @@
       <c r="JJ33" s="11">
         <v>2040</v>
       </c>
+      <c r="JK33" s="11">
+        <v>2010</v>
+      </c>
+      <c r="JL33" s="11">
+        <v>2100</v>
+      </c>
     </row>
-    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>85</v>
       </c>
@@ -22438,7 +22594,7 @@
       <c r="H35" s="17"/>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>15</v>
       </c>
@@ -22451,7 +22607,7 @@
       <c r="H36" s="14"/>
       <c r="I36" s="18"/>
     </row>
-    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>86</v>
       </c>
@@ -22464,7 +22620,7 @@
       <c r="H37" s="14"/>
       <c r="I37" s="18"/>
     </row>
-    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>87</v>
       </c>
@@ -22477,7 +22633,7 @@
       <c r="H38" s="14"/>
       <c r="I38" s="18"/>
     </row>
-    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>88</v>
       </c>
@@ -22490,7 +22646,7 @@
       <c r="H39" s="14"/>
       <c r="I39" s="18"/>
     </row>
-    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>89</v>
       </c>
@@ -22503,7 +22659,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="18"/>
     </row>
-    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>90</v>
       </c>
@@ -22516,7 +22672,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
         <v>91</v>
       </c>
